--- a/maps.xlsx
+++ b/maps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="825" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="1260" yWindow="825" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -2259,7 +2259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
@@ -9771,8 +9771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10180,8 +10180,8 @@
       <c r="I7">
         <v>300</v>
       </c>
-      <c r="J7">
-        <v>300</v>
+      <c r="J7" s="1">
+        <v>129</v>
       </c>
       <c r="K7">
         <v>300</v>
@@ -10239,14 +10239,14 @@
       <c r="H8">
         <v>300</v>
       </c>
-      <c r="I8">
-        <v>300</v>
-      </c>
-      <c r="J8">
-        <v>300</v>
-      </c>
-      <c r="K8">
-        <v>300</v>
+      <c r="I8" s="1">
+        <v>148</v>
+      </c>
+      <c r="J8" s="1">
+        <v>149</v>
+      </c>
+      <c r="K8" s="1">
+        <v>150</v>
       </c>
       <c r="L8">
         <v>300</v>
@@ -10304,8 +10304,8 @@
       <c r="I9">
         <v>300</v>
       </c>
-      <c r="J9">
-        <v>300</v>
+      <c r="J9" s="1">
+        <v>169</v>
       </c>
       <c r="K9">
         <v>300</v>
